--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>24.40637255380479</v>
+        <v>49.63710160547333</v>
       </c>
       <c r="R2">
-        <v>24.40637255380479</v>
+        <v>446.73391444926</v>
       </c>
       <c r="S2">
-        <v>0.004114762033690759</v>
+        <v>0.006800298262299663</v>
       </c>
       <c r="T2">
-        <v>0.004114762033690759</v>
+        <v>0.006800298262299663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>625.256632804761</v>
+        <v>741.5099056114249</v>
       </c>
       <c r="R3">
-        <v>625.256632804761</v>
+        <v>6673.589150502824</v>
       </c>
       <c r="S3">
-        <v>0.1054143645601802</v>
+        <v>0.101587086262332</v>
       </c>
       <c r="T3">
-        <v>0.1054143645601802</v>
+        <v>0.101587086262332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>78.49696241881084</v>
+        <v>94.68344414148044</v>
       </c>
       <c r="R4">
-        <v>78.49696241881084</v>
+        <v>852.150997273324</v>
       </c>
       <c r="S4">
-        <v>0.01323409777544431</v>
+        <v>0.01297166111312306</v>
       </c>
       <c r="T4">
-        <v>0.01323409777544431</v>
+        <v>0.01297166111312306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>113.5609577046124</v>
+        <v>206.6923970857233</v>
       </c>
       <c r="R5">
-        <v>113.5609577046124</v>
+        <v>1860.23157377151</v>
       </c>
       <c r="S5">
-        <v>0.01914566846188931</v>
+        <v>0.0283169222873724</v>
       </c>
       <c r="T5">
-        <v>0.01914566846188931</v>
+        <v>0.0283169222873724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>2909.270596273049</v>
+        <v>3087.699621783192</v>
       </c>
       <c r="R6">
-        <v>2909.270596273049</v>
+        <v>27789.29659604873</v>
       </c>
       <c r="S6">
-        <v>0.4904848587755835</v>
+        <v>0.4230158025624981</v>
       </c>
       <c r="T6">
-        <v>0.4904848587755835</v>
+        <v>0.4230158025624981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>365.2402752408803</v>
+        <v>394.2685491486638</v>
       </c>
       <c r="R7">
-        <v>365.2402752408803</v>
+        <v>3548.416942337974</v>
       </c>
       <c r="S7">
-        <v>0.0615772300624678</v>
+        <v>0.05401491309797642</v>
       </c>
       <c r="T7">
-        <v>0.0615772300624678</v>
+        <v>0.05401491309797642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>60.84117024480981</v>
+        <v>152.68081730647</v>
       </c>
       <c r="R8">
-        <v>60.84117024480981</v>
+        <v>1374.12735575823</v>
       </c>
       <c r="S8">
-        <v>0.01025744144717777</v>
+        <v>0.02091731916315583</v>
       </c>
       <c r="T8">
-        <v>0.01025744144717777</v>
+        <v>0.02091731916315583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>1558.664449594359</v>
+        <v>2280.841039620895</v>
       </c>
       <c r="R9">
-        <v>1558.664449594359</v>
+        <v>20527.56935658805</v>
       </c>
       <c r="S9">
-        <v>0.2627810948274058</v>
+        <v>0.3124759274140503</v>
       </c>
       <c r="T9">
-        <v>0.2627810948274058</v>
+        <v>0.3124759274140503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>195.6803307699565</v>
+        <v>291.2407285948113</v>
       </c>
       <c r="R10">
-        <v>195.6803307699565</v>
+        <v>2621.166557353302</v>
       </c>
       <c r="S10">
-        <v>0.03299048205616056</v>
+        <v>0.03990006983719205</v>
       </c>
       <c r="T10">
-        <v>0.03299048205616056</v>
+        <v>0.03990006983719204</v>
       </c>
     </row>
   </sheetData>
